--- a/biology/Botanique/Bellerocheaceae/Bellerocheaceae.xlsx
+++ b/biology/Botanique/Bellerocheaceae/Bellerocheaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bellerocheaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Biddulphiales.
 			Bellerochea malleus(Engler &amp; Prantl, 1900)
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Bellerochea, nommé en mémoire du Professeur anversois John Belleroche « diatomophile passionné »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Bellerochea, nommé en mémoire du Professeur anversois John Belleroche « diatomophile passionné ».
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Bellerochea se présente comme des cellules rectangulaires en vue de ceinture, faiblement silicifiées et jointes pour former de longs filaments dans lesquels existent de petits espaces inter-cellulaires dus à la courbure des faces valvulaires. De nombreux plastide sont visibles sous forme de petites plaques.
-Les valves sont triangulaires (parfois bi- ou quadrangulaires) ; elles sont légèrement enfoncée au niveau des angles. Face et ceinture forment un maillage ouvert de côtes siliceuses rayonnant à partir d'un anneau central, ou n'atteignant même pas le centre  ; les costa forment parfois de petits tourbillons en forme de "C". Des côtes mineures relient les principales pour délimiter les aréoles ; aucun vela n'est visible. À la jonction entre la face de la valve et le manteau (mantle), une légère crête marginale est développée et aux angles de la valve, il y a ce qui semble être un ocelle (ocellus), avec des crêtes longitudinales distinctes. Les crêtes marginales s'imbriquent ou même fusionnent avec celles des cellules adjacentes. Des rimoportules (rimoportula/lae) assez délicates apparaissent au centre ou à la marge, munis de longs tubes externes. Les éléments du cingulum sont nombreux mais plus légèrement silicifiés que les valves[2].
-Note : le vocabulaire ci-dessus (notamment les mots en italique), spécifique aux diatomées, est explicité dans un glossaire anglophone des diatomées[3].
+Les valves sont triangulaires (parfois bi- ou quadrangulaires) ; elles sont légèrement enfoncée au niveau des angles. Face et ceinture forment un maillage ouvert de côtes siliceuses rayonnant à partir d'un anneau central, ou n'atteignant même pas le centre  ; les costa forment parfois de petits tourbillons en forme de "C". Des côtes mineures relient les principales pour délimiter les aréoles ; aucun vela n'est visible. À la jonction entre la face de la valve et le manteau (mantle), une légère crête marginale est développée et aux angles de la valve, il y a ce qui semble être un ocelle (ocellus), avec des crêtes longitudinales distinctes. Les crêtes marginales s'imbriquent ou même fusionnent avec celles des cellules adjacentes. Des rimoportules (rimoportula/lae) assez délicates apparaissent au centre ou à la marge, munis de longs tubes externes. Les éléments du cingulum sont nombreux mais plus légèrement silicifiés que les valves.
+Note : le vocabulaire ci-dessus (notamment les mots en italique), spécifique aux diatomées, est explicité dans un glossaire anglophone des diatomées.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Bellerochea est une diatomée planctonique marine largement répandue[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Bellerochea est une diatomée planctonique marine largement répandue.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 août 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 août 2022) :
 Bellerochea Van Heurck, 1885
 Climacodium Grunow, 1868
 Neostreptotheca von Stosch, 1977
@@ -641,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bellerocheaceae R.M.Crawford, 1990[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bellerocheaceae R.M.Crawford, 1990.
 </t>
         </is>
       </c>
@@ -672,7 +694,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Round, F.E., Crawford, R.M. &amp; Mann, D.G. (1990). The diatoms biology and morphology of the genera.  pp. [i-ix], 1-747. Cambridge: Cambridge University Press.</t>
         </is>
